--- a/UNFV.AnalysisTabular/reportes.xlsx
+++ b/UNFV.AnalysisTabular/reportes.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="23655" windowHeight="10500"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="23655" windowHeight="10500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="tmpAC09 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="tmpAC09" sheetId="1" r:id="rId2"/>
+    <sheet name="tmp59C8 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="tmp59C8 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="tmp59C8" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="449" r:id="rId3"/>
-    <pivotCache cacheId="461" r:id="rId4"/>
+    <pivotCache cacheId="291" r:id="rId4"/>
+    <pivotCache cacheId="294" r:id="rId5"/>
+    <pivotCache cacheId="312" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\PJUDICIAL\AppData\Local\Temp\tmpAC09.odc" keepAlive="1" name="JAV05JLINFVSOTO UNFVAnalysisTabular_PJUDICIAL_74bd89ff-02b6-422e-94b5-7457a4c82068" type="5" refreshedVersion="3" background="1">
+  <connection id="1" odcFile="C:\Users\PJUDICIAL\AppData\Local\Temp\tmp59C8.odc" keepAlive="1" name="JAV05JLINFVSOTO UNFVAnalysisTabular_PJUDICIAL_74bd89ff-02b6-422e-94b5-7457a4c82068" type="5" refreshedVersion="3" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=UNFVAnalysisTabular_PJUDICIAL_74bd89ff-02b6-422e-94b5-7457a4c82068;Data Source=JAV05JLINFVSOTO;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Optimize Response=3;Cell Error Mode=TextValue;Update Isolation Level=2" command="Model" commandType="1"/>
     <olapPr rowDrillCount="1000"/>
   </connection>
@@ -28,7 +30,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="24">
+  <si>
+    <t>.metaSales</t>
+  </si>
   <si>
     <t>Valores</t>
   </si>
@@ -39,7 +44,16 @@
     <t>Rótulos de fila</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>Total general</t>
   </si>
   <si>
     <t>10</t>
@@ -49,6 +63,15 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>2</t>
@@ -69,46 +92,16 @@
     <t>7</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Total general</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
     <t>Estado .kpiSalesVsMeta</t>
   </si>
   <si>
-    <t>.kpiSalesVsMeta</t>
+    <t>.%salesVsMeta</t>
   </si>
   <si>
-    <t>Objetivo .kpiSalesVsMeta</t>
+    <t>.sales_Previous_year</t>
   </si>
   <si>
-    <t>.sales_Previous_Month</t>
-  </si>
-  <si>
-    <t>.%SalesVsMetas</t>
-  </si>
-  <si>
-    <t>Estado .kpiSalesVsSalesPrviousMonth</t>
-  </si>
-  <si>
-    <t>.kpiSalesVsSalesPrviousMonth</t>
-  </si>
-  <si>
-    <t>Objetivo .kpiSalesVsSalesPrviousMonth</t>
+    <t>Estado .KPIsalesVsSalesPreviosYear</t>
   </si>
 </sst>
 </file>
@@ -252,7 +245,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,8 +425,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -548,6 +547,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -593,7 +601,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -603,6 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -654,14 +663,17 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PJUDICIAL" refreshedDate="43873.558158564818" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PJUDICIAL" refreshedDate="43875.454164699077" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
-    <cacheField name="[Measures].[.SalesAmount]" caption=".SalesAmount" numFmtId="0" hierarchy="119" level="32767"/>
-    <cacheField name="[Measures].[_.kpiSalesVsMeta Status]" caption="_.kpiSalesVsMeta Status" numFmtId="0" hierarchy="138" level="32767"/>
-    <cacheField name="[Measures].[_.kpiSalesVsMeta Goal]" caption="_.kpiSalesVsMeta Goal" numFmtId="0" hierarchy="137" level="32767"/>
-    <cacheField name="[Measures].[.kpiSalesVsMeta]" caption=".kpiSalesVsMeta" numFmtId="0" hierarchy="129" level="32767"/>
-    <cacheField name="[DimTime].[monthDT].[monthDT]" caption="monthDT" numFmtId="0" hierarchy="75" level="1">
+    <cacheField name="[DimTime].[yearDT].[yearDT]" caption="yearDT" numFmtId="0" hierarchy="77" level="1">
+      <sharedItems count="3">
+        <s v="[DimTime].[yearDT].&amp;[2018]" c="2018"/>
+        <s v="[DimTime].[yearDT].&amp;[2019]" c="2019"/>
+        <s v="[DimTime].[yearDT].&amp;[2020]" c="2020"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[DimTime].[monthDT].[monthDT]" caption="monthDT" numFmtId="0" hierarchy="74" level="1">
       <sharedItems count="12">
         <s v="[DimTime].[monthDT].&amp;[1]" c="1"/>
         <s v="[DimTime].[monthDT].&amp;[10]" c="10"/>
@@ -677,9 +689,12 @@
         <s v="[DimTime].[monthDT].&amp;[9]" c="9"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[.%SalesVsMetas]" caption=".%SalesVsMetas" numFmtId="0" hierarchy="128" level="32767"/>
+    <cacheField name="[Measures].[.%salesVsMeta]" caption=".%salesVsMeta" numFmtId="0" hierarchy="133" level="32767"/>
+    <cacheField name="[Measures].[.SalesAmount]" caption=".SalesAmount" numFmtId="0" hierarchy="114" level="32767"/>
+    <cacheField name="[Measures].[.metaSales]" caption=".metaSales" numFmtId="0" hierarchy="131" level="32767"/>
+    <cacheField name="[Measures].[_.kpiSalesVsMeta Status]" caption="_.kpiSalesVsMeta Status" numFmtId="0" hierarchy="137" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="142">
+  <cacheHierarchies count="141">
     <cacheHierarchy uniqueName="[DimCustomer].[Address]" caption="Address" attribute="1" defaultMemberUniqueName="[DimCustomer].[Address].[All]" allUniqueName="[DimCustomer].[Address].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimCustomer].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DimCustomer].[City].[All]" allUniqueName="[DimCustomer].[City].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimCustomer].[CompanyName]" caption="CompanyName" attribute="1" defaultMemberUniqueName="[DimCustomer].[CompanyName].[All]" allUniqueName="[DimCustomer].[CompanyName].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
@@ -754,21 +769,20 @@
     <cacheHierarchy uniqueName="[DimProvider].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[DimProvider].[UpdateAuditKey].[All]" allUniqueName="[DimProvider].[UpdateAuditKey].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[dateDT]" caption="dateDT" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DimTime].[dateDT].[All]" allUniqueName="[DimTime].[dateDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[dayDT]" caption="dayDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[dayDT].[All]" allUniqueName="[DimTime].[dayDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[InsertAuditKey].[All]" allUniqueName="[DimTime].[InsertAuditKey].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[monthDT]" caption="monthDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[monthDT].[All]" allUniqueName="[DimTime].[monthDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="4"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DimTime].[RowChangeReason]" caption="RowChangeReason" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowChangeReason].[All]" allUniqueName="[DimTime].[RowChangeReason].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[RowEndDate]" caption="RowEndDate" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowEndDate].[All]" allUniqueName="[DimTime].[RowEndDate].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[RowIsCurrent]" caption="RowIsCurrent" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowIsCurrent].[All]" allUniqueName="[DimTime].[RowIsCurrent].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[RowStartDate]" caption="RowStartDate" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowStartDate].[All]" allUniqueName="[DimTime].[RowStartDate].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[TimeKey]" caption="TimeKey" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[TimeKey].[All]" allUniqueName="[DimTime].[TimeKey].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[trimester]" caption="trimester" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[trimester].[All]" allUniqueName="[DimTime].[trimester].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[UpdateAuditKey].[All]" allUniqueName="[DimTime].[UpdateAuditKey].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[yearDT]" caption="yearDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[yearDT].[All]" allUniqueName="[DimTime].[yearDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimTime].[yearDT]" caption="yearDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[yearDT].[All]" allUniqueName="[DimTime].[yearDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[metas].[dateDT]" caption="dateDT" attribute="1" defaultMemberUniqueName="[metas].[dateDT].[All]" allUniqueName="[metas].[dateDT].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[metas].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[metas].[dateKey].[All]" allUniqueName="[metas].[dateKey].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[metas].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[metas].[Description].[All]" allUniqueName="[metas].[Description].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
@@ -781,14 +795,15 @@
     <cacheHierarchy uniqueName="[Sales].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[Sales].[dateKey].[All]" allUniqueName="[Sales].[dateKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[Discount]" caption="Discount" attribute="1" defaultMemberUniqueName="[Sales].[Discount].[All]" allUniqueName="[Sales].[Discount].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[employeeKey]" caption="employeeKey" attribute="1" defaultMemberUniqueName="[Sales].[employeeKey].[All]" allUniqueName="[Sales].[employeeKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Sales].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" defaultMemberUniqueName="[Sales].[InsertAuditKey].[All]" allUniqueName="[Sales].[InsertAuditKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[IGV]" caption="IGV" attribute="1" defaultMemberUniqueName="[Sales].[IGV].[All]" allUniqueName="[Sales].[IGV].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[ordenID]" caption="ordenID" attribute="1" defaultMemberUniqueName="[Sales].[ordenID].[All]" allUniqueName="[Sales].[ordenID].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[productKey]" caption="productKey" attribute="1" defaultMemberUniqueName="[Sales].[productKey].[All]" allUniqueName="[Sales].[productKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[providerKey]" caption="providerKey" attribute="1" defaultMemberUniqueName="[Sales].[providerKey].[All]" allUniqueName="[Sales].[providerKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[Quantity]" caption="Quantity" attribute="1" defaultMemberUniqueName="[Sales].[Quantity].[All]" allUniqueName="[Sales].[Quantity].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[SalesKey]" caption="SalesKey" attribute="1" defaultMemberUniqueName="[Sales].[SalesKey].[All]" allUniqueName="[Sales].[SalesKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[SubTotal]" caption="SubTotal" attribute="1" defaultMemberUniqueName="[Sales].[SubTotal].[All]" allUniqueName="[Sales].[SubTotal].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Total]" caption="Total" attribute="1" defaultMemberUniqueName="[Sales].[Total].[All]" allUniqueName="[Sales].[Total].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[UnitPrice]" caption="UnitPrice" attribute="1" defaultMemberUniqueName="[Sales].[UnitPrice].[All]" allUniqueName="[Sales].[UnitPrice].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Sales].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[Sales].[UpdateAuditKey].[All]" allUniqueName="[Sales].[UpdateAuditKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales 1].[customerKey]" caption="customerKey" attribute="1" defaultMemberUniqueName="[Sales 1].[customerKey].[All]" allUniqueName="[Sales 1].[customerKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales 1].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[Sales 1].[dateKey].[All]" allUniqueName="[Sales 1].[dateKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales 1].[Discount]" caption="Discount" attribute="1" defaultMemberUniqueName="[Sales 1].[Discount].[All]" allUniqueName="[Sales 1].[Discount].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
@@ -806,7 +821,7 @@
     <cacheHierarchy uniqueName="[Sales 1].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[Sales 1].[UpdateAuditKey].[All]" allUniqueName="[Sales 1].[UpdateAuditKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[.SalesAmount]" caption=".SalesAmount" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1">
       <fieldsUsage count="1">
-        <fieldUsage x="0"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[.SalesAmountAvg]" caption=".SalesAmountAvg" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
@@ -816,32 +831,32 @@
     <cacheHierarchy uniqueName="[Measures].[.sales_Previous_year]" caption=".sales_Previous_year" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Quarter]" caption=".sales_Previous_Quarter" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Month]" caption=".sales_Previous_Month" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[.KPIsales]" caption=".KPIsales" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[.%SalesVsMetas]" caption=".%SalesVsMetas" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsMeta]" caption=".kpiSalesVsMeta" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="3"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[.KPIsalesVsSalesPreviosYear]" caption=".KPIsalesVsSalesPreviosYear" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.%SalesVsMetas]" caption=".%SalesVsMetas" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsMeta]" caption=".kpiSalesVsMeta" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsSalesPrviousMonth]" caption=".kpiSalesVsSalesPrviousMonth" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.salesPrevious-1]" caption=".salesPrevious-1" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.salesPrevious-2]" caption=".salesPrevious-2" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.SalesAmount1]" caption=".SalesAmount1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.sales_Previous_year1]" caption=".sales_Previous_year1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.SalesAggregateYear1]" caption=".SalesAggregateYear1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[.metaSales]" caption=".metaSales" measure="1" displayFolder="" measureGroup="metas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[_.KPIsales Goal]" caption="_.KPIsales Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[_.KPIsales Status]" caption="_.KPIsales Status" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsMeta Goal]" caption="_.kpiSalesVsMeta Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
+    <cacheHierarchy uniqueName="[Measures].[.metaSales]" caption=".metaSales" measure="1" displayFolder="" measureGroup="metas" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[.TotalSales]" caption=".TotalSales" measure="1" displayFolder="" measureGroup="metas" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.%salesVsMeta]" caption=".%salesVsMeta" measure="1" displayFolder="" measureGroup="metas" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[_.KPIsalesVsSalesPreviosYear Goal]" caption="_.KPIsalesVsSalesPreviosYear Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.KPIsalesVsSalesPreviosYear Status]" caption="_.KPIsalesVsSalesPreviosYear Status" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsMeta Goal]" caption="_.kpiSalesVsMeta Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsMeta Status]" caption="_.kpiSalesVsMeta Status" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
       <fieldsUsage count="1">
-        <fieldUsage x="1"/>
+        <fieldUsage x="5"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" caption="_.kpiSalesVsSalesPrviousMonth Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
@@ -849,7 +864,7 @@
     <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
   </cacheHierarchies>
   <kpis count="3">
-    <kpi uniqueName=".KPIsales" caption=".KPIsales" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.KPIsales]" goal="[Measures].[_.KPIsales Goal]" status="[Measures].[_.KPIsales Status]" trend="" weight=""/>
+    <kpi uniqueName=".KPIsalesVsSalesPreviosYear" caption=".KPIsalesVsSalesPreviosYear" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.KPIsalesVsSalesPreviosYear]" goal="[Measures].[_.KPIsalesVsSalesPreviosYear Goal]" status="[Measures].[_.KPIsalesVsSalesPreviosYear Status]" trend="" weight=""/>
     <kpi uniqueName=".kpiSalesVsMeta" caption=".kpiSalesVsMeta" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.kpiSalesVsMeta]" goal="[Measures].[_.kpiSalesVsMeta Goal]" status="[Measures].[_.kpiSalesVsMeta Status]" trend="" weight=""/>
     <kpi uniqueName=".kpiSalesVsSalesPrviousMonth" caption=".kpiSalesVsSalesPrviousMonth" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.kpiSalesVsSalesPrviousMonth]" goal="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" status="[Measures].[_.kpiSalesVsSalesPrviousMonth Status]" trend="" weight=""/>
   </kpis>
@@ -895,19 +910,19 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PJUDICIAL" refreshedDate="43873.558803356478" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PJUDICIAL" refreshedDate="43875.454165856485" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
-  <cacheFields count="7">
-    <cacheField name="[Measures].[.SalesAmount]" caption=".SalesAmount" numFmtId="0" hierarchy="119" level="32767"/>
-    <cacheField name="[Measures].[.sales_Previous_Month]" caption=".sales_Previous_Month" numFmtId="0" hierarchy="126" level="32767"/>
-    <cacheField name="[DimTime].[yearDT].[yearDT]" caption="yearDT" numFmtId="0" hierarchy="83" level="1">
+  <cacheFields count="5">
+    <cacheField name="[Measures].[.metaSales]" caption=".metaSales" numFmtId="0" hierarchy="131" level="32767"/>
+    <cacheField name="[Measures].[.SalesAmount]" caption=".SalesAmount" numFmtId="0" hierarchy="114" level="32767"/>
+    <cacheField name="[DimTime].[yearDT].[yearDT]" caption="yearDT" numFmtId="0" hierarchy="77" level="1">
       <sharedItems count="3">
-        <s v="[DimTime].[yearDT].&amp;[1996]" c="1996"/>
-        <s v="[DimTime].[yearDT].&amp;[1997]" c="1997"/>
-        <s v="[DimTime].[yearDT].&amp;[1998]" c="1998"/>
+        <s v="[DimTime].[yearDT].&amp;[2018]" c="2018"/>
+        <s v="[DimTime].[yearDT].&amp;[2019]" c="2019"/>
+        <s v="[DimTime].[yearDT].&amp;[2020]" c="2020"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[DimTime].[monthDT].[monthDT]" caption="monthDT" numFmtId="0" hierarchy="75" level="1">
+    <cacheField name="[DimTime].[monthDT].[monthDT]" caption="monthDT" numFmtId="0" hierarchy="74" level="1">
       <sharedItems count="12">
         <s v="[DimTime].[monthDT].&amp;[1]" c="1"/>
         <s v="[DimTime].[monthDT].&amp;[10]" c="10"/>
@@ -923,11 +938,9 @@
         <s v="[DimTime].[monthDT].&amp;[9]" c="9"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[_.kpiSalesVsSalesPrviousMonth Status]" caption="_.kpiSalesVsSalesPrviousMonth Status" numFmtId="0" hierarchy="140" level="32767"/>
-    <cacheField name="[Measures].[.kpiSalesVsSalesPrviousMonth]" caption=".kpiSalesVsSalesPrviousMonth" numFmtId="0" hierarchy="130" level="32767"/>
-    <cacheField name="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" caption="_.kpiSalesVsSalesPrviousMonth Goal" numFmtId="0" hierarchy="139" level="32767"/>
+    <cacheField name="[Measures].[_.kpiSalesVsMeta Status]" caption="_.kpiSalesVsMeta Status" numFmtId="0" hierarchy="137" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="142">
+  <cacheHierarchies count="141">
     <cacheHierarchy uniqueName="[DimCustomer].[Address]" caption="Address" attribute="1" defaultMemberUniqueName="[DimCustomer].[Address].[All]" allUniqueName="[DimCustomer].[Address].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimCustomer].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DimCustomer].[City].[All]" allUniqueName="[DimCustomer].[City].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimCustomer].[CompanyName]" caption="CompanyName" attribute="1" defaultMemberUniqueName="[DimCustomer].[CompanyName].[All]" allUniqueName="[DimCustomer].[CompanyName].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
@@ -1002,20 +1015,14 @@
     <cacheHierarchy uniqueName="[DimProvider].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[DimProvider].[UpdateAuditKey].[All]" allUniqueName="[DimProvider].[UpdateAuditKey].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[dateDT]" caption="dateDT" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DimTime].[dateDT].[All]" allUniqueName="[DimTime].[dateDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[dayDT]" caption="dayDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[dayDT].[All]" allUniqueName="[DimTime].[dayDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[InsertAuditKey].[All]" allUniqueName="[DimTime].[InsertAuditKey].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[monthDT]" caption="monthDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[monthDT].[All]" allUniqueName="[DimTime].[monthDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
         <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[DimTime].[RowChangeReason]" caption="RowChangeReason" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowChangeReason].[All]" allUniqueName="[DimTime].[RowChangeReason].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[RowEndDate]" caption="RowEndDate" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowEndDate].[All]" allUniqueName="[DimTime].[RowEndDate].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[RowIsCurrent]" caption="RowIsCurrent" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowIsCurrent].[All]" allUniqueName="[DimTime].[RowIsCurrent].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[RowStartDate]" caption="RowStartDate" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[RowStartDate].[All]" allUniqueName="[DimTime].[RowStartDate].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[TimeKey]" caption="TimeKey" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[TimeKey].[All]" allUniqueName="[DimTime].[TimeKey].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[trimester]" caption="trimester" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[trimester].[All]" allUniqueName="[DimTime].[trimester].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[DimTime].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[UpdateAuditKey].[All]" allUniqueName="[DimTime].[UpdateAuditKey].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[DimTime].[yearDT]" caption="yearDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[yearDT].[All]" allUniqueName="[DimTime].[yearDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1034,14 +1041,257 @@
     <cacheHierarchy uniqueName="[Sales].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[Sales].[dateKey].[All]" allUniqueName="[Sales].[dateKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[Discount]" caption="Discount" attribute="1" defaultMemberUniqueName="[Sales].[Discount].[All]" allUniqueName="[Sales].[Discount].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[employeeKey]" caption="employeeKey" attribute="1" defaultMemberUniqueName="[Sales].[employeeKey].[All]" allUniqueName="[Sales].[employeeKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Sales].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" defaultMemberUniqueName="[Sales].[InsertAuditKey].[All]" allUniqueName="[Sales].[InsertAuditKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[IGV]" caption="IGV" attribute="1" defaultMemberUniqueName="[Sales].[IGV].[All]" allUniqueName="[Sales].[IGV].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[ordenID]" caption="ordenID" attribute="1" defaultMemberUniqueName="[Sales].[ordenID].[All]" allUniqueName="[Sales].[ordenID].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[productKey]" caption="productKey" attribute="1" defaultMemberUniqueName="[Sales].[productKey].[All]" allUniqueName="[Sales].[productKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[providerKey]" caption="providerKey" attribute="1" defaultMemberUniqueName="[Sales].[providerKey].[All]" allUniqueName="[Sales].[providerKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[Quantity]" caption="Quantity" attribute="1" defaultMemberUniqueName="[Sales].[Quantity].[All]" allUniqueName="[Sales].[Quantity].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[SalesKey]" caption="SalesKey" attribute="1" defaultMemberUniqueName="[Sales].[SalesKey].[All]" allUniqueName="[Sales].[SalesKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[SubTotal]" caption="SubTotal" attribute="1" defaultMemberUniqueName="[Sales].[SubTotal].[All]" allUniqueName="[Sales].[SubTotal].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Total]" caption="Total" attribute="1" defaultMemberUniqueName="[Sales].[Total].[All]" allUniqueName="[Sales].[Total].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales].[UnitPrice]" caption="UnitPrice" attribute="1" defaultMemberUniqueName="[Sales].[UnitPrice].[All]" allUniqueName="[Sales].[UnitPrice].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Sales].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[Sales].[UpdateAuditKey].[All]" allUniqueName="[Sales].[UpdateAuditKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[customerKey]" caption="customerKey" attribute="1" defaultMemberUniqueName="[Sales 1].[customerKey].[All]" allUniqueName="[Sales 1].[customerKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[Sales 1].[dateKey].[All]" allUniqueName="[Sales 1].[dateKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[Discount]" caption="Discount" attribute="1" defaultMemberUniqueName="[Sales 1].[Discount].[All]" allUniqueName="[Sales 1].[Discount].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[employeeKey]" caption="employeeKey" attribute="1" defaultMemberUniqueName="[Sales 1].[employeeKey].[All]" allUniqueName="[Sales 1].[employeeKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[IGV]" caption="IGV" attribute="1" defaultMemberUniqueName="[Sales 1].[IGV].[All]" allUniqueName="[Sales 1].[IGV].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" defaultMemberUniqueName="[Sales 1].[InsertAuditKey].[All]" allUniqueName="[Sales 1].[InsertAuditKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[ordenID]" caption="ordenID" attribute="1" defaultMemberUniqueName="[Sales 1].[ordenID].[All]" allUniqueName="[Sales 1].[ordenID].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[productKey]" caption="productKey" attribute="1" defaultMemberUniqueName="[Sales 1].[productKey].[All]" allUniqueName="[Sales 1].[productKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[providerKey]" caption="providerKey" attribute="1" defaultMemberUniqueName="[Sales 1].[providerKey].[All]" allUniqueName="[Sales 1].[providerKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[Quantity]" caption="Quantity" attribute="1" defaultMemberUniqueName="[Sales 1].[Quantity].[All]" allUniqueName="[Sales 1].[Quantity].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[SalesKey]" caption="SalesKey" attribute="1" defaultMemberUniqueName="[Sales 1].[SalesKey].[All]" allUniqueName="[Sales 1].[SalesKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[SubTotal]" caption="SubTotal" attribute="1" defaultMemberUniqueName="[Sales 1].[SubTotal].[All]" allUniqueName="[Sales 1].[SubTotal].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[Total]" caption="Total" attribute="1" defaultMemberUniqueName="[Sales 1].[Total].[All]" allUniqueName="[Sales 1].[Total].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[UnitPrice]" caption="UnitPrice" attribute="1" defaultMemberUniqueName="[Sales 1].[UnitPrice].[All]" allUniqueName="[Sales 1].[UnitPrice].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales 1].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[Sales 1].[UpdateAuditKey].[All]" allUniqueName="[Sales 1].[UpdateAuditKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.SalesAmount]" caption=".SalesAmount" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[.SalesAmountAvg]" caption=".SalesAmountAvg" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.SalesAggregateMonth]" caption=".SalesAggregateMonth" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.SalesAggregateQuater]" caption=".SalesAggregateQuater" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.SalesAggregateYear]" caption=".SalesAggregateYear" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_year]" caption=".sales_Previous_year" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Quarter]" caption=".sales_Previous_Quarter" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Month]" caption=".sales_Previous_Month" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.KPIsalesVsSalesPreviosYear]" caption=".KPIsalesVsSalesPreviosYear" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.%SalesVsMetas]" caption=".%SalesVsMetas" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsMeta]" caption=".kpiSalesVsMeta" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsSalesPrviousMonth]" caption=".kpiSalesVsSalesPrviousMonth" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.salesPrevious-1]" caption=".salesPrevious-1" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.salesPrevious-2]" caption=".salesPrevious-2" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.SalesAmount1]" caption=".SalesAmount1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_year1]" caption=".sales_Previous_year1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.SalesAggregateYear1]" caption=".SalesAggregateYear1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.metaSales]" caption=".metaSales" measure="1" displayFolder="" measureGroup="metas" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[.TotalSales]" caption=".TotalSales" measure="1" displayFolder="" measureGroup="metas" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.%salesVsMeta]" caption=".%salesVsMeta" measure="1" displayFolder="" measureGroup="metas" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[_.KPIsalesVsSalesPreviosYear Goal]" caption="_.KPIsalesVsSalesPreviosYear Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.KPIsalesVsSalesPreviosYear Status]" caption="_.KPIsalesVsSalesPreviosYear Status" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsMeta Goal]" caption="_.kpiSalesVsMeta Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsMeta Status]" caption="_.kpiSalesVsMeta Status" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" caption="_.kpiSalesVsSalesPrviousMonth Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsSalesPrviousMonth Status]" caption="_.kpiSalesVsSalesPrviousMonth Status" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="3">
+    <kpi uniqueName=".KPIsalesVsSalesPreviosYear" caption=".KPIsalesVsSalesPreviosYear" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.KPIsalesVsSalesPreviosYear]" goal="[Measures].[_.KPIsalesVsSalesPreviosYear Goal]" status="[Measures].[_.KPIsalesVsSalesPreviosYear Status]" trend="" weight=""/>
+    <kpi uniqueName=".kpiSalesVsMeta" caption=".kpiSalesVsMeta" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.kpiSalesVsMeta]" goal="[Measures].[_.kpiSalesVsMeta Goal]" status="[Measures].[_.kpiSalesVsMeta Status]" trend="" weight=""/>
+    <kpi uniqueName=".kpiSalesVsSalesPrviousMonth" caption=".kpiSalesVsSalesPrviousMonth" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.kpiSalesVsSalesPrviousMonth]" goal="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" status="[Measures].[_.kpiSalesVsSalesPrviousMonth Status]" trend="" weight=""/>
+  </kpis>
+  <dimensions count="9">
+    <dimension name="DimCustomer" uniqueName="[DimCustomer]" caption="DimCustomer"/>
+    <dimension name="DimEmployee" uniqueName="[DimEmployee]" caption="DimEmployee"/>
+    <dimension name="DimProduct" uniqueName="[DimProduct]" caption="DimProduct"/>
+    <dimension name="DimProvider" uniqueName="[DimProvider]" caption="DimProvider"/>
+    <dimension name="DimTime" uniqueName="[DimTime]" caption="DimTime"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="metas" uniqueName="[metas]" caption="metas"/>
+    <dimension name="Sales" uniqueName="[Sales]" caption="Sales"/>
+    <dimension name="Sales 1" uniqueName="[Sales 1]" caption="Sales 1"/>
+  </dimensions>
+  <measureGroups count="8">
+    <measureGroup name="DimCustomer" caption="DimCustomer"/>
+    <measureGroup name="DimEmployee" caption="DimEmployee"/>
+    <measureGroup name="DimProduct" caption="DimProduct"/>
+    <measureGroup name="DimProvider" caption="DimProvider"/>
+    <measureGroup name="DimTime" caption="DimTime"/>
+    <measureGroup name="metas" caption="metas"/>
+    <measureGroup name="Sales" caption="Sales"/>
+    <measureGroup name="Sales 1" caption="Sales 1"/>
+  </measureGroups>
+  <maps count="15">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="3" dimension="3"/>
+    <map measureGroup="4" dimension="4"/>
+    <map measureGroup="5" dimension="2"/>
+    <map measureGroup="5" dimension="4"/>
+    <map measureGroup="5" dimension="6"/>
+    <map measureGroup="6" dimension="0"/>
+    <map measureGroup="6" dimension="1"/>
+    <map measureGroup="6" dimension="2"/>
+    <map measureGroup="6" dimension="3"/>
+    <map measureGroup="6" dimension="4"/>
+    <map measureGroup="6" dimension="7"/>
+    <map measureGroup="7" dimension="8"/>
+  </maps>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PJUDICIAL" refreshedDate="43875.456914236114" backgroundQuery="1" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[.SalesAmount]" caption=".SalesAmount" numFmtId="0" hierarchy="114" level="32767"/>
+    <cacheField name="[Measures].[.sales_Previous_year]" caption=".sales_Previous_year" numFmtId="0" hierarchy="119" level="32767"/>
+    <cacheField name="[Measures].[_.KPIsalesVsSalesPreviosYear Status]" caption="_.KPIsalesVsSalesPreviosYear Status" numFmtId="0" hierarchy="135" level="32767"/>
+    <cacheField name="[DimTime].[monthDT].[monthDT]" caption="monthDT" numFmtId="0" hierarchy="74" level="1">
+      <sharedItems count="12">
+        <s v="[DimTime].[monthDT].&amp;[1]" c="1"/>
+        <s v="[DimTime].[monthDT].&amp;[10]" c="10"/>
+        <s v="[DimTime].[monthDT].&amp;[11]" c="11"/>
+        <s v="[DimTime].[monthDT].&amp;[12]" c="12"/>
+        <s v="[DimTime].[monthDT].&amp;[2]" c="2"/>
+        <s v="[DimTime].[monthDT].&amp;[3]" c="3"/>
+        <s v="[DimTime].[monthDT].&amp;[4]" c="4"/>
+        <s v="[DimTime].[monthDT].&amp;[5]" c="5"/>
+        <s v="[DimTime].[monthDT].&amp;[6]" c="6"/>
+        <s v="[DimTime].[monthDT].&amp;[7]" c="7"/>
+        <s v="[DimTime].[monthDT].&amp;[8]" c="8"/>
+        <s v="[DimTime].[monthDT].&amp;[9]" c="9"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[DimTime].[yearDT].[yearDT]" caption="yearDT" numFmtId="0" hierarchy="77" level="1">
+      <sharedItems count="3">
+        <s v="[DimTime].[yearDT].&amp;[2018]" c="2018"/>
+        <s v="[DimTime].[yearDT].&amp;[2019]" c="2019"/>
+        <s v="[DimTime].[yearDT].&amp;[2020]" c="2020"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="141">
+    <cacheHierarchy uniqueName="[DimCustomer].[Address]" caption="Address" attribute="1" defaultMemberUniqueName="[DimCustomer].[Address].[All]" allUniqueName="[DimCustomer].[Address].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DimCustomer].[City].[All]" allUniqueName="[DimCustomer].[City].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[CompanyName]" caption="CompanyName" attribute="1" defaultMemberUniqueName="[DimCustomer].[CompanyName].[All]" allUniqueName="[DimCustomer].[CompanyName].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[ContactName]" caption="ContactName" attribute="1" defaultMemberUniqueName="[DimCustomer].[ContactName].[All]" allUniqueName="[DimCustomer].[ContactName].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[ContactTitle]" caption="ContactTitle" attribute="1" defaultMemberUniqueName="[DimCustomer].[ContactTitle].[All]" allUniqueName="[DimCustomer].[ContactTitle].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[DimCustomer].[Country].[All]" allUniqueName="[DimCustomer].[Country].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[CustomerID]" caption="CustomerID" attribute="1" defaultMemberUniqueName="[DimCustomer].[CustomerID].[All]" allUniqueName="[DimCustomer].[CustomerID].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[CustomerKey]" caption="CustomerKey" attribute="1" defaultMemberUniqueName="[DimCustomer].[CustomerKey].[All]" allUniqueName="[DimCustomer].[CustomerKey].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[Fax]" caption="Fax" attribute="1" defaultMemberUniqueName="[DimCustomer].[Fax].[All]" allUniqueName="[DimCustomer].[Fax].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" defaultMemberUniqueName="[DimCustomer].[InsertAuditKey].[All]" allUniqueName="[DimCustomer].[InsertAuditKey].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[Phone]" caption="Phone" attribute="1" defaultMemberUniqueName="[DimCustomer].[Phone].[All]" allUniqueName="[DimCustomer].[Phone].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[PostalCode]" caption="PostalCode" attribute="1" defaultMemberUniqueName="[DimCustomer].[PostalCode].[All]" allUniqueName="[DimCustomer].[PostalCode].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[DimCustomer].[Region].[All]" allUniqueName="[DimCustomer].[Region].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[RowChangeReason]" caption="RowChangeReason" attribute="1" defaultMemberUniqueName="[DimCustomer].[RowChangeReason].[All]" allUniqueName="[DimCustomer].[RowChangeReason].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[RowEndDate]" caption="RowEndDate" attribute="1" defaultMemberUniqueName="[DimCustomer].[RowEndDate].[All]" allUniqueName="[DimCustomer].[RowEndDate].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[RowIsCurrent]" caption="RowIsCurrent" attribute="1" defaultMemberUniqueName="[DimCustomer].[RowIsCurrent].[All]" allUniqueName="[DimCustomer].[RowIsCurrent].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[RowStartDate]" caption="RowStartDate" attribute="1" defaultMemberUniqueName="[DimCustomer].[RowStartDate].[All]" allUniqueName="[DimCustomer].[RowStartDate].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimCustomer].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[DimCustomer].[UpdateAuditKey].[All]" allUniqueName="[DimCustomer].[UpdateAuditKey].[All]" dimensionUniqueName="[DimCustomer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[Address]" caption="Address" attribute="1" defaultMemberUniqueName="[DimEmployee].[Address].[All]" allUniqueName="[DimEmployee].[Address].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[BirthDate]" caption="BirthDate" attribute="1" defaultMemberUniqueName="[DimEmployee].[BirthDate].[All]" allUniqueName="[DimEmployee].[BirthDate].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DimEmployee].[City].[All]" allUniqueName="[DimEmployee].[City].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[DimEmployee].[Country].[All]" allUniqueName="[DimEmployee].[Country].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[employeeID]" caption="employeeID" attribute="1" defaultMemberUniqueName="[DimEmployee].[employeeID].[All]" allUniqueName="[DimEmployee].[employeeID].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[employeeKey]" caption="employeeKey" attribute="1" defaultMemberUniqueName="[DimEmployee].[employeeKey].[All]" allUniqueName="[DimEmployee].[employeeKey].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[FirstName]" caption="FirstName" attribute="1" defaultMemberUniqueName="[DimEmployee].[FirstName].[All]" allUniqueName="[DimEmployee].[FirstName].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[HireDate]" caption="HireDate" attribute="1" defaultMemberUniqueName="[DimEmployee].[HireDate].[All]" allUniqueName="[DimEmployee].[HireDate].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[HomePhone]" caption="HomePhone" attribute="1" defaultMemberUniqueName="[DimEmployee].[HomePhone].[All]" allUniqueName="[DimEmployee].[HomePhone].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" defaultMemberUniqueName="[DimEmployee].[InsertAuditKey].[All]" allUniqueName="[DimEmployee].[InsertAuditKey].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[LastName]" caption="LastName" attribute="1" defaultMemberUniqueName="[DimEmployee].[LastName].[All]" allUniqueName="[DimEmployee].[LastName].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[PostalCode]" caption="PostalCode" attribute="1" defaultMemberUniqueName="[DimEmployee].[PostalCode].[All]" allUniqueName="[DimEmployee].[PostalCode].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[DimEmployee].[Region].[All]" allUniqueName="[DimEmployee].[Region].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[RowChangeReason]" caption="RowChangeReason" attribute="1" defaultMemberUniqueName="[DimEmployee].[RowChangeReason].[All]" allUniqueName="[DimEmployee].[RowChangeReason].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[RowEndDate]" caption="RowEndDate" attribute="1" defaultMemberUniqueName="[DimEmployee].[RowEndDate].[All]" allUniqueName="[DimEmployee].[RowEndDate].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[RowIsCurrent]" caption="RowIsCurrent" attribute="1" defaultMemberUniqueName="[DimEmployee].[RowIsCurrent].[All]" allUniqueName="[DimEmployee].[RowIsCurrent].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[RowStartDate]" caption="RowStartDate" attribute="1" defaultMemberUniqueName="[DimEmployee].[RowStartDate].[All]" allUniqueName="[DimEmployee].[RowStartDate].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[Title]" caption="Title" attribute="1" defaultMemberUniqueName="[DimEmployee].[Title].[All]" allUniqueName="[DimEmployee].[Title].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimEmployee].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[DimEmployee].[UpdateAuditKey].[All]" allUniqueName="[DimEmployee].[UpdateAuditKey].[All]" dimensionUniqueName="[DimEmployee]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[CategoryName]" caption="CategoryName" attribute="1" defaultMemberUniqueName="[DimProduct].[CategoryName].[All]" allUniqueName="[DimProduct].[CategoryName].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[DimProduct].[Description].[All]" allUniqueName="[DimProduct].[Description].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" defaultMemberUniqueName="[DimProduct].[InsertAuditKey].[All]" allUniqueName="[DimProduct].[InsertAuditKey].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[Name]" caption="Name" attribute="1" defaultMemberUniqueName="[DimProduct].[Name].[All]" allUniqueName="[DimProduct].[Name].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[ProductID]" caption="ProductID" attribute="1" defaultMemberUniqueName="[DimProduct].[ProductID].[All]" allUniqueName="[DimProduct].[ProductID].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[ProductKey]" caption="ProductKey" attribute="1" defaultMemberUniqueName="[DimProduct].[ProductKey].[All]" allUniqueName="[DimProduct].[ProductKey].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[ProveedorID]" caption="ProveedorID" attribute="1" defaultMemberUniqueName="[DimProduct].[ProveedorID].[All]" allUniqueName="[DimProduct].[ProveedorID].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[QuantityPerUnit]" caption="QuantityPerUnit" attribute="1" defaultMemberUniqueName="[DimProduct].[QuantityPerUnit].[All]" allUniqueName="[DimProduct].[QuantityPerUnit].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[RowChangeReason]" caption="RowChangeReason" attribute="1" defaultMemberUniqueName="[DimProduct].[RowChangeReason].[All]" allUniqueName="[DimProduct].[RowChangeReason].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[RowEndDate]" caption="RowEndDate" attribute="1" defaultMemberUniqueName="[DimProduct].[RowEndDate].[All]" allUniqueName="[DimProduct].[RowEndDate].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[RowIsCurrent]" caption="RowIsCurrent" attribute="1" defaultMemberUniqueName="[DimProduct].[RowIsCurrent].[All]" allUniqueName="[DimProduct].[RowIsCurrent].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[RowStartDate]" caption="RowStartDate" attribute="1" defaultMemberUniqueName="[DimProduct].[RowStartDate].[All]" allUniqueName="[DimProduct].[RowStartDate].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[UnitPrice]" caption="UnitPrice" attribute="1" defaultMemberUniqueName="[DimProduct].[UnitPrice].[All]" allUniqueName="[DimProduct].[UnitPrice].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[UnitsInStock]" caption="UnitsInStock" attribute="1" defaultMemberUniqueName="[DimProduct].[UnitsInStock].[All]" allUniqueName="[DimProduct].[UnitsInStock].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[UnitsOnOrder]" caption="UnitsOnOrder" attribute="1" defaultMemberUniqueName="[DimProduct].[UnitsOnOrder].[All]" allUniqueName="[DimProduct].[UnitsOnOrder].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProduct].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[DimProduct].[UpdateAuditKey].[All]" allUniqueName="[DimProduct].[UpdateAuditKey].[All]" dimensionUniqueName="[DimProduct]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[Adress]" caption="Adress" attribute="1" defaultMemberUniqueName="[DimProvider].[Adress].[All]" allUniqueName="[DimProvider].[Adress].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[City]" caption="City" attribute="1" defaultMemberUniqueName="[DimProvider].[City].[All]" allUniqueName="[DimProvider].[City].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[CompanyName]" caption="CompanyName" attribute="1" defaultMemberUniqueName="[DimProvider].[CompanyName].[All]" allUniqueName="[DimProvider].[CompanyName].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[ContactName]" caption="ContactName" attribute="1" defaultMemberUniqueName="[DimProvider].[ContactName].[All]" allUniqueName="[DimProvider].[ContactName].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[ContactTitle]" caption="ContactTitle" attribute="1" defaultMemberUniqueName="[DimProvider].[ContactTitle].[All]" allUniqueName="[DimProvider].[ContactTitle].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[Country]" caption="Country" attribute="1" defaultMemberUniqueName="[DimProvider].[Country].[All]" allUniqueName="[DimProvider].[Country].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[fax]" caption="fax" attribute="1" defaultMemberUniqueName="[DimProvider].[fax].[All]" allUniqueName="[DimProvider].[fax].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[HomePage]" caption="HomePage" attribute="1" defaultMemberUniqueName="[DimProvider].[HomePage].[All]" allUniqueName="[DimProvider].[HomePage].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[InsertAuditKey]" caption="InsertAuditKey" attribute="1" defaultMemberUniqueName="[DimProvider].[InsertAuditKey].[All]" allUniqueName="[DimProvider].[InsertAuditKey].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[PostalCode]" caption="PostalCode" attribute="1" defaultMemberUniqueName="[DimProvider].[PostalCode].[All]" allUniqueName="[DimProvider].[PostalCode].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[ProveedorID]" caption="ProveedorID" attribute="1" defaultMemberUniqueName="[DimProvider].[ProveedorID].[All]" allUniqueName="[DimProvider].[ProveedorID].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[ProviderKey]" caption="ProviderKey" attribute="1" defaultMemberUniqueName="[DimProvider].[ProviderKey].[All]" allUniqueName="[DimProvider].[ProviderKey].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[Region]" caption="Region" attribute="1" defaultMemberUniqueName="[DimProvider].[Region].[All]" allUniqueName="[DimProvider].[Region].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[RowChangeReason]" caption="RowChangeReason" attribute="1" defaultMemberUniqueName="[DimProvider].[RowChangeReason].[All]" allUniqueName="[DimProvider].[RowChangeReason].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[RowEndDate]" caption="RowEndDate" attribute="1" defaultMemberUniqueName="[DimProvider].[RowEndDate].[All]" allUniqueName="[DimProvider].[RowEndDate].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[RowIsCurrent]" caption="RowIsCurrent" attribute="1" defaultMemberUniqueName="[DimProvider].[RowIsCurrent].[All]" allUniqueName="[DimProvider].[RowIsCurrent].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[RowStartDate]" caption="RowStartDate" attribute="1" defaultMemberUniqueName="[DimProvider].[RowStartDate].[All]" allUniqueName="[DimProvider].[RowStartDate].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[telefone]" caption="telefone" attribute="1" defaultMemberUniqueName="[DimProvider].[telefone].[All]" allUniqueName="[DimProvider].[telefone].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimProvider].[UpdateAuditKey]" caption="UpdateAuditKey" attribute="1" defaultMemberUniqueName="[DimProvider].[UpdateAuditKey].[All]" allUniqueName="[DimProvider].[UpdateAuditKey].[All]" dimensionUniqueName="[DimProvider]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimTime].[dateDT]" caption="dateDT" attribute="1" time="1" keyAttribute="1" defaultMemberUniqueName="[DimTime].[dateDT].[All]" allUniqueName="[DimTime].[dateDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" memberValueDatatype="7" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimTime].[dayDT]" caption="dayDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[dayDT].[All]" allUniqueName="[DimTime].[dayDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimTime].[monthDT]" caption="monthDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[monthDT].[All]" allUniqueName="[DimTime].[monthDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[DimTime].[TimeKey]" caption="TimeKey" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[TimeKey].[All]" allUniqueName="[DimTime].[TimeKey].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimTime].[trimester]" caption="trimester" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[trimester].[All]" allUniqueName="[DimTime].[trimester].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[DimTime].[yearDT]" caption="yearDT" attribute="1" time="1" defaultMemberUniqueName="[DimTime].[yearDT].[All]" allUniqueName="[DimTime].[yearDT].[All]" dimensionUniqueName="[DimTime]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[metas].[dateDT]" caption="dateDT" attribute="1" defaultMemberUniqueName="[metas].[dateDT].[All]" allUniqueName="[metas].[dateDT].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[metas].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[metas].[dateKey].[All]" allUniqueName="[metas].[dateKey].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[metas].[Description]" caption="Description" attribute="1" defaultMemberUniqueName="[metas].[Description].[All]" allUniqueName="[metas].[Description].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[metas].[MetaSales]" caption="MetaSales" attribute="1" defaultMemberUniqueName="[metas].[MetaSales].[All]" allUniqueName="[metas].[MetaSales].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[metas].[monthDT]" caption="monthDT" attribute="1" defaultMemberUniqueName="[metas].[monthDT].[All]" allUniqueName="[metas].[monthDT].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[metas].[nameMonth]" caption="nameMonth" attribute="1" defaultMemberUniqueName="[metas].[nameMonth].[All]" allUniqueName="[metas].[nameMonth].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[metas].[ProductKey]" caption="ProductKey" attribute="1" defaultMemberUniqueName="[metas].[ProductKey].[All]" allUniqueName="[metas].[ProductKey].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[metas].[Total]" caption="Total" attribute="1" defaultMemberUniqueName="[metas].[Total].[All]" allUniqueName="[metas].[Total].[All]" dimensionUniqueName="[metas]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[customerKey]" caption="customerKey" attribute="1" defaultMemberUniqueName="[Sales].[customerKey].[All]" allUniqueName="[Sales].[customerKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[Sales].[dateKey].[All]" allUniqueName="[Sales].[dateKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Discount]" caption="Discount" attribute="1" defaultMemberUniqueName="[Sales].[Discount].[All]" allUniqueName="[Sales].[Discount].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[employeeKey]" caption="employeeKey" attribute="1" defaultMemberUniqueName="[Sales].[employeeKey].[All]" allUniqueName="[Sales].[employeeKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[IGV]" caption="IGV" attribute="1" defaultMemberUniqueName="[Sales].[IGV].[All]" allUniqueName="[Sales].[IGV].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[ordenID]" caption="ordenID" attribute="1" defaultMemberUniqueName="[Sales].[ordenID].[All]" allUniqueName="[Sales].[ordenID].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[productKey]" caption="productKey" attribute="1" defaultMemberUniqueName="[Sales].[productKey].[All]" allUniqueName="[Sales].[productKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[providerKey]" caption="providerKey" attribute="1" defaultMemberUniqueName="[Sales].[providerKey].[All]" allUniqueName="[Sales].[providerKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Quantity]" caption="Quantity" attribute="1" defaultMemberUniqueName="[Sales].[Quantity].[All]" allUniqueName="[Sales].[Quantity].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[SalesKey]" caption="SalesKey" attribute="1" defaultMemberUniqueName="[Sales].[SalesKey].[All]" allUniqueName="[Sales].[SalesKey].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[SubTotal]" caption="SubTotal" attribute="1" defaultMemberUniqueName="[Sales].[SubTotal].[All]" allUniqueName="[Sales].[SubTotal].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[Total]" caption="Total" attribute="1" defaultMemberUniqueName="[Sales].[Total].[All]" allUniqueName="[Sales].[Total].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Sales].[UnitPrice]" caption="UnitPrice" attribute="1" defaultMemberUniqueName="[Sales].[UnitPrice].[All]" allUniqueName="[Sales].[UnitPrice].[All]" dimensionUniqueName="[Sales]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales 1].[customerKey]" caption="customerKey" attribute="1" defaultMemberUniqueName="[Sales 1].[customerKey].[All]" allUniqueName="[Sales 1].[customerKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales 1].[dateKey]" caption="dateKey" attribute="1" defaultMemberUniqueName="[Sales 1].[dateKey].[All]" allUniqueName="[Sales 1].[dateKey].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Sales 1].[Discount]" caption="Discount" attribute="1" defaultMemberUniqueName="[Sales 1].[Discount].[All]" allUniqueName="[Sales 1].[Discount].[All]" dimensionUniqueName="[Sales 1]" displayFolder="" count="0" unbalanced="0"/>
@@ -1066,43 +1316,39 @@
     <cacheHierarchy uniqueName="[Measures].[.SalesAggregateMonth]" caption=".SalesAggregateMonth" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.SalesAggregateQuater]" caption=".SalesAggregateQuater" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.SalesAggregateYear]" caption=".SalesAggregateYear" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_year]" caption=".sales_Previous_year" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Quarter]" caption=".sales_Previous_Quarter" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Month]" caption=".sales_Previous_Month" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1">
+    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_year]" caption=".sales_Previous_year" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1">
       <fieldsUsage count="1">
         <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[.KPIsales]" caption=".KPIsales" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Quarter]" caption=".sales_Previous_Quarter" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.sales_Previous_Month]" caption=".sales_Previous_Month" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.KPIsalesVsSalesPreviosYear]" caption=".KPIsalesVsSalesPreviosYear" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.%SalesVsMetas]" caption=".%SalesVsMetas" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsMeta]" caption=".kpiSalesVsMeta" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsSalesPrviousMonth]" caption=".kpiSalesVsSalesPrviousMonth" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="5"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[.kpiSalesVsSalesPrviousMonth]" caption=".kpiSalesVsSalesPrviousMonth" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.salesPrevious-1]" caption=".salesPrevious-1" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.salesPrevious-2]" caption=".salesPrevious-2" measure="1" displayFolder="" measureGroup="Sales" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.SalesAmount1]" caption=".SalesAmount1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.sales_Previous_year1]" caption=".sales_Previous_year1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.SalesAggregateYear1]" caption=".SalesAggregateYear1" measure="1" displayFolder="" measureGroup="Sales 1" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[.metaSales]" caption=".metaSales" measure="1" displayFolder="" measureGroup="metas" count="0"/>
-    <cacheHierarchy uniqueName="[Measures].[_.KPIsales Goal]" caption="_.KPIsales Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[_.KPIsales Status]" caption="_.KPIsales Status" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[.TotalSales]" caption=".TotalSales" measure="1" displayFolder="" measureGroup="metas" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[.%salesVsMeta]" caption=".%salesVsMeta" measure="1" displayFolder="" measureGroup="metas" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[_.KPIsalesVsSalesPreviosYear Goal]" caption="_.KPIsalesVsSalesPreviosYear Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.KPIsalesVsSalesPreviosYear Status]" caption="_.KPIsalesVsSalesPreviosYear Status" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
     <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsMeta Goal]" caption="_.kpiSalesVsMeta Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsMeta Status]" caption="_.kpiSalesVsMeta Status" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
-    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" caption="_.kpiSalesVsSalesPrviousMonth Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="6"/>
-      </fieldsUsage>
-    </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsSalesPrviousMonth Status]" caption="_.kpiSalesVsSalesPrviousMonth Status" measure="1" displayFolder="" measureGroup="Sales" count="0" oneField="1" hidden="1">
-      <fieldsUsage count="1">
-        <fieldUsage x="4"/>
-      </fieldsUsage>
-    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" caption="_.kpiSalesVsSalesPrviousMonth Goal" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[_.kpiSalesVsSalesPrviousMonth Status]" caption="_.kpiSalesVsSalesPrviousMonth Status" measure="1" displayFolder="" measureGroup="Sales" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__Default measure]" caption="__Default measure" measure="1" displayFolder="" count="0" hidden="1"/>
   </cacheHierarchies>
   <kpis count="3">
-    <kpi uniqueName=".KPIsales" caption=".KPIsales" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.KPIsales]" goal="[Measures].[_.KPIsales Goal]" status="[Measures].[_.KPIsales Status]" trend="" weight=""/>
+    <kpi uniqueName=".KPIsalesVsSalesPreviosYear" caption=".KPIsalesVsSalesPreviosYear" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.KPIsalesVsSalesPreviosYear]" goal="[Measures].[_.KPIsalesVsSalesPreviosYear Goal]" status="[Measures].[_.KPIsalesVsSalesPreviosYear Status]" trend="" weight=""/>
     <kpi uniqueName=".kpiSalesVsMeta" caption=".kpiSalesVsMeta" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.kpiSalesVsMeta]" goal="[Measures].[_.kpiSalesVsMeta Goal]" status="[Measures].[_.kpiSalesVsMeta Status]" trend="" weight=""/>
     <kpi uniqueName=".kpiSalesVsSalesPrviousMonth" caption=".kpiSalesVsSalesPrviousMonth" displayFolder="" measureGroup="Sales" parent="" value="[Measures].[.kpiSalesVsSalesPrviousMonth]" goal="[Measures].[_.kpiSalesVsSalesPrviousMonth Goal]" status="[Measures].[_.kpiSalesVsSalesPrviousMonth Status]" trend="" weight=""/>
   </kpis>
@@ -1148,9 +1394,608 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="461" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:F29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="312" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Estado .KPIsalesVsSalesPreviosYear" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat scope="data" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotHierarchies count="144">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="77"/>
+    <rowHierarchyUsage hierarchyUsage="74"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="291" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:E25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="23">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Estado .kpiSalesVsMeta" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="1">
+    <conditionalFormat scope="data" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotHierarchies count="144">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="77"/>
+    <rowHierarchyUsage hierarchyUsage="74"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="294" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="A1:D25" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="5">
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
@@ -1179,14 +2024,12 @@
       </items>
     </pivotField>
     <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="2">
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="27">
+  <rowItems count="23">
     <i>
       <x/>
     </i>
@@ -1200,9 +2043,6 @@
       <x v="3"/>
     </i>
     <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
       <x v="10"/>
     </i>
     <i r="1">
@@ -1255,15 +2095,6 @@
     </i>
     <i r="1">
       <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -1272,7 +2103,7 @@
   <colFields count="1">
     <field x="-2"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="3">
     <i>
       <x/>
     </i>
@@ -1282,19 +2113,11 @@
     <i i="2">
       <x v="2"/>
     </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
   </colItems>
-  <dataFields count="5">
+  <dataFields count="3">
     <dataField fld="0" baseField="0" baseItem="0"/>
     <dataField fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Estado .kpiSalesVsSalesPrviousMonth" fld="4" baseField="0" baseItem="0"/>
-    <dataField name=".kpiSalesVsSalesPrviousMonth" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Objetivo .kpiSalesVsSalesPrviousMonth" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Estado .kpiSalesVsMeta" fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="1">
     <conditionalFormat scope="data" priority="1">
@@ -1309,126 +2132,125 @@
       </pivotAreas>
     </conditionalFormat>
   </conditionalFormats>
-  <pivotHierarchies count="145">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
+  <pivotHierarchies count="144">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -1458,276 +2280,8 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="2">
-    <rowHierarchyUsage hierarchyUsage="83"/>
-    <rowHierarchyUsage hierarchyUsage="75"/>
-  </rowHierarchiesUsage>
-  <colHierarchiesUsage count="1">
-    <colHierarchyUsage hierarchyUsage="-2"/>
-  </colHierarchiesUsage>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="449" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:F15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField fld="0" baseField="0" baseItem="0"/>
-    <dataField name="Estado .kpiSalesVsMeta" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Objetivo .kpiSalesVsMeta" fld="2" baseField="0" baseItem="0"/>
-    <dataField name=".kpiSalesVsMeta" fld="3" baseField="0" baseItem="0"/>
-    <dataField fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <conditionalFormats count="1">
-    <conditionalFormat scope="data" priority="2">
-      <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="1"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-  </conditionalFormats>
-  <pivotHierarchies count="145">
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
-    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
-  </pivotHierarchies>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <rowHierarchiesUsage count="1">
-    <rowHierarchyUsage hierarchyUsage="75"/>
+    <rowHierarchyUsage hierarchyUsage="77"/>
+    <rowHierarchyUsage hierarchyUsage="74"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -2020,605 +2574,351 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="7" width="37" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1"/>
-    <col min="17" max="17" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.28515625" customWidth="1"/>
-    <col min="21" max="21" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.28515625" customWidth="1"/>
-    <col min="23" max="23" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.28515625" customWidth="1"/>
-    <col min="25" max="25" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.28515625" customWidth="1"/>
-    <col min="27" max="27" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="38" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="50" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:4">
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>226298.5</v>
+        <v>180485.83799999999</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1">
-        <v>226298.5</v>
-      </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>41203.599999999999</v>
-      </c>
-      <c r="C4" s="1">
-        <v>27636</v>
-      </c>
+        <v>38125.917999999998</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="1">
-        <v>41203.599999999999</v>
-      </c>
-      <c r="F4" s="1">
-        <v>27636</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>49704</v>
-      </c>
-      <c r="C5" s="1">
-        <v>41203.599999999999</v>
-      </c>
+        <v>39806.71</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>49704</v>
-      </c>
-      <c r="F5" s="1">
-        <v>41203.599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>50953.4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>49704</v>
-      </c>
+        <v>53102.006000000001</v>
+      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="1">
-        <v>50953.4</v>
-      </c>
-      <c r="F6" s="1">
-        <v>49704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>30192.1</v>
+        <v>19865.063999999998</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="1">
-        <v>30192.1</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>26609.4</v>
-      </c>
-      <c r="C8" s="1">
-        <v>30192.1</v>
-      </c>
+        <v>29586.14</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>26609.4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>30192.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="1">
-        <v>27636</v>
+        <v>863445.11699999997</v>
       </c>
       <c r="C9" s="1">
-        <v>26609.4</v>
+        <v>180485.83799999996</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>27636</v>
-      </c>
-      <c r="F9" s="1">
-        <v>26609.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="B10" s="1">
-        <v>658388.75</v>
+        <v>165243.89600000001</v>
       </c>
       <c r="C10" s="1">
-        <v>50953.4</v>
+        <v>180485.83799999996</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>658388.75</v>
-      </c>
-      <c r="F10" s="1">
-        <v>50953.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1">
-        <v>66692.800000000003</v>
+        <v>82987.63</v>
       </c>
       <c r="C11" s="1">
-        <v>50953.4</v>
+        <v>180485.83799999996</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>66692.800000000003</v>
-      </c>
-      <c r="F11" s="1">
-        <v>50953.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
-        <v>70328.5</v>
+        <v>54177.764799999997</v>
       </c>
       <c r="C12" s="1">
-        <v>59733.02</v>
+        <v>180485.83799999996</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>70328.5</v>
-      </c>
-      <c r="F12" s="1">
-        <v>59733.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="1">
-        <v>45913.36</v>
+        <v>91421.986799999999</v>
       </c>
       <c r="C13" s="1">
-        <v>70328.5</v>
+        <v>180485.83799999996</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
-      <c r="E13" s="1">
-        <v>45913.36</v>
-      </c>
-      <c r="F13" s="1">
-        <v>70328.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>48624.495999999999</v>
+      </c>
+      <c r="C14" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>47176.281999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D15" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>65725.280199999994</v>
+      </c>
+      <c r="C16" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>67051.966</v>
+      </c>
+      <c r="C17" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>46123.839999999997</v>
+      </c>
+      <c r="C18" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>65448.617400000003</v>
+      </c>
+      <c r="C19" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>58978.394200000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>70484.963600000003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>180485.83799999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="1">
-        <v>77476.259999999995</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45913.36</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>77476.259999999995</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45913.36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="4" t="s">
+      <c r="B22" s="1">
+        <v>554330.18119999999</v>
+      </c>
+      <c r="C22" s="1">
+        <v>863445.11699999927</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>119008.5696</v>
+      </c>
+      <c r="C23" s="1">
+        <v>863445.11699999927</v>
+      </c>
+      <c r="D23" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>435321.6116</v>
+      </c>
+      <c r="C24" s="1">
+        <v>863445.11699999927</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="1">
-        <v>41207.199999999997</v>
-      </c>
-      <c r="C15" s="1">
-        <v>66692.800000000003</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>41207.199999999997</v>
-      </c>
-      <c r="F15" s="1">
-        <v>66692.800000000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1">
-        <v>39979.9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>41207.199999999997</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>39979.9</v>
-      </c>
-      <c r="F16" s="1">
-        <v>41207.199999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="1">
-        <v>55699.39</v>
-      </c>
-      <c r="C17" s="1">
-        <v>39979.9</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>55699.39</v>
-      </c>
-      <c r="F17" s="1">
-        <v>39979.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="1">
-        <v>56823.7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>55699.39</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>56823.7</v>
-      </c>
-      <c r="F18" s="1">
-        <v>55699.39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="1">
-        <v>39088</v>
-      </c>
-      <c r="C19" s="1">
-        <v>56823.7</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>39088</v>
-      </c>
-      <c r="F19" s="1">
-        <v>56823.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="1">
-        <v>55464.93</v>
-      </c>
-      <c r="C20" s="1">
-        <v>39088</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>55464.93</v>
-      </c>
-      <c r="F20" s="1">
-        <v>39088</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="1">
-        <v>49981.69</v>
-      </c>
-      <c r="C21" s="1">
-        <v>55464.93</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>49981.69</v>
-      </c>
-      <c r="F21" s="1">
-        <v>55464.93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="1">
-        <v>59733.02</v>
-      </c>
-      <c r="C22" s="1">
-        <v>49981.69</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>59733.02</v>
-      </c>
-      <c r="F22" s="1">
-        <v>49981.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="1">
-        <v>469771.34</v>
-      </c>
-      <c r="C23" s="1">
-        <v>77476.259999999995</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>469771.34</v>
-      </c>
-      <c r="F23" s="1">
-        <v>77476.259999999995</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>100854.72</v>
-      </c>
-      <c r="C24" s="1">
-        <v>77476.259999999995</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100854.72</v>
-      </c>
-      <c r="F24" s="1">
-        <v>77476.259999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="B25" s="1">
-        <v>104561.95</v>
-      </c>
-      <c r="C25" s="1">
-        <v>100854.72</v>
-      </c>
+        <v>1598261.1362000001</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1">
-        <v>104561.95</v>
-      </c>
-      <c r="F25" s="1">
-        <v>100854.72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1">
-        <v>109825.45</v>
-      </c>
-      <c r="C26" s="1">
-        <v>104561.95</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>109825.45</v>
-      </c>
-      <c r="F26" s="1">
-        <v>104561.95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="1">
-        <v>134630.56</v>
-      </c>
-      <c r="C27" s="1">
-        <v>109825.45</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>134630.56</v>
-      </c>
-      <c r="F27" s="1">
-        <v>109825.45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B28" s="1">
-        <v>19898.66</v>
-      </c>
-      <c r="C28" s="1">
-        <v>134630.56</v>
-      </c>
-      <c r="D28" s="1">
-        <v>-1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>19898.66</v>
-      </c>
-      <c r="F28" s="1">
-        <v>134630.56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1354458.59</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1354458.59</v>
-      </c>
-      <c r="F29" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="D3:D29">
+  <conditionalFormatting pivot="1" sqref="D3:D25">
     <cfRule type="iconSet" priority="1">
       <iconSet showValue="0">
         <cfvo type="num" val="-1"/>
@@ -2633,310 +2933,904 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C3" s="1">
+        <v>180485.83799999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>270728.75699999987</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C4" s="1">
+        <v>38125.917999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>57188.877</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39806.71</v>
+      </c>
+      <c r="D5" s="1">
+        <v>59710.06500000001</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53102.006000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>79653.009000000005</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19865.063999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>29797.595999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29586.14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44379.210000000006</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C9" s="1">
+        <v>863445.11699999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1295167.6754999999</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="C10" s="1">
+        <v>165243.89600000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>247865.84399999995</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.66666666666666718</v>
+      </c>
+      <c r="C11" s="1">
+        <v>82987.63</v>
+      </c>
+      <c r="D11" s="1">
+        <v>124481.44499999991</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="C12" s="1">
+        <v>54177.764799999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>81266.647199999978</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C13" s="1">
+        <v>91421.986799999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>137132.98019999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C14" s="1">
+        <v>48624.495999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>72936.743999999962</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C15" s="1">
+        <v>47176.281999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>70764.422999999995</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="C16" s="1">
+        <v>65725.280199999994</v>
+      </c>
+      <c r="D16" s="1">
+        <v>98587.920299999969</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.66666666666666641</v>
+      </c>
+      <c r="C17" s="1">
+        <v>67051.966</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100577.94900000004</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C18" s="1">
+        <v>46123.839999999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>69185.759999999966</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="C19" s="1">
+        <v>65448.617400000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>98172.926099999997</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="C20" s="1">
+        <v>58978.394200000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>88467.591299999985</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70484.963600000003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>105727.44539999997</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="C22" s="1">
+        <v>554330.18119999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>831495.27179999964</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C23" s="1">
+        <v>119008.5696</v>
+      </c>
+      <c r="D23" s="1">
+        <v>178512.85440000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.66666666666666718</v>
+      </c>
+      <c r="C24" s="1">
+        <v>435321.6116</v>
+      </c>
+      <c r="D24" s="1">
+        <v>652982.41739999945</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.66666666666666652</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1598261.1362000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2397391.7043000008</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="5">
+        <v>1438435.0225800006</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="5">
+        <v>479478.34086000023</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="5">
+        <v>1118782.7953400039</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="B31" s="5">
+        <v>1598261.1362000036</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="B32" s="5">
+        <v>319652.22723999934</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="5">
+        <v>1118782.7953400039</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="E3:E25">
+    <cfRule type="iconSet" priority="1">
+      <iconSet showValue="0">
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0.5"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="1">
-        <v>167547.51999999999</v>
+        <v>270728.75699999987</v>
       </c>
       <c r="C3" s="1">
-        <v>0</v>
+        <v>180485.83799999999</v>
       </c>
       <c r="D3" s="1">
-        <v>217476.68096</v>
-      </c>
-      <c r="E3" s="1">
-        <v>167547.51999999999</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>111532.1</v>
+        <v>57188.877</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>38125.917999999998</v>
       </c>
       <c r="D4" s="1">
-        <v>144768.66580000002</v>
-      </c>
-      <c r="E4" s="1">
-        <v>111532.1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>59710.06500000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>39806.71</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
+        <v>79653.009000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>53102.006000000001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>29797.595999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>19865.063999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44379.210000000006</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29586.14</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1">
-        <v>95617.36</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>124111.33327999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>95617.36</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="B9" s="1">
+        <v>1295167.6754999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>863445.11699999997</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>247865.84399999995</v>
+      </c>
+      <c r="C10" s="1">
+        <v>165243.89600000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>124481.44499999991</v>
+      </c>
+      <c r="C11" s="1">
+        <v>82987.63</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>81266.647199999978</v>
+      </c>
+      <c r="C12" s="1">
+        <v>54177.764799999997</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>137132.98019999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>91421.986799999999</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>72936.743999999962</v>
+      </c>
+      <c r="C14" s="1">
+        <v>48624.495999999999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>70764.422999999995</v>
+      </c>
+      <c r="C15" s="1">
+        <v>47176.281999999999</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>98587.920299999969</v>
+      </c>
+      <c r="C16" s="1">
+        <v>65725.280199999994</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>100577.94900000004</v>
+      </c>
+      <c r="C17" s="1">
+        <v>67051.966</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>69185.759999999966</v>
+      </c>
+      <c r="C18" s="1">
+        <v>46123.839999999997</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>98172.926099999997</v>
+      </c>
+      <c r="C19" s="1">
+        <v>65448.617400000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>88467.591299999985</v>
+      </c>
+      <c r="C20" s="1">
+        <v>58978.394200000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>105727.44539999997</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70484.963600000003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1">
-        <v>128429.66</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>166701.69867999991</v>
-      </c>
-      <c r="E6" s="1">
-        <v>128429.66</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="B22" s="1">
+        <v>831495.27179999964</v>
+      </c>
+      <c r="C22" s="1">
+        <v>554330.18119999999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1">
+        <v>178512.85440000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>119008.5696</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="1">
+        <v>652982.41739999945</v>
+      </c>
+      <c r="C24" s="1">
+        <v>435321.6116</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>145769.15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>189208.35669999997</v>
-      </c>
-      <c r="E7" s="1">
-        <v>145769.15</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>149805.35</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>194447.34429999997</v>
-      </c>
-      <c r="E8" s="1">
-        <v>149805.35</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>190329.95</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>247048.2751000002</v>
-      </c>
-      <c r="E9" s="1">
-        <v>190329.95</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1">
-        <v>76722.36</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>99585.623279999985</v>
-      </c>
-      <c r="E10" s="1">
-        <v>76722.36</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1">
-        <v>39088</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>50736.223999999987</v>
-      </c>
-      <c r="E11" s="1">
-        <v>39088</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1">
-        <v>85657.03</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>111182.82493999995</v>
-      </c>
-      <c r="E12" s="1">
-        <v>85657.03</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1">
-        <v>76591.09</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>99415.234820000027</v>
-      </c>
-      <c r="E13" s="1">
-        <v>76591.09</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1">
-        <v>87369.02</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>113404.98796000001</v>
-      </c>
-      <c r="E14" s="1">
-        <v>87369.02</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.77039999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1354458.59</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1758087.2498199958</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1354458.59</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0.77039999999999997</v>
+      <c r="B25" s="1">
+        <v>2397391.7043000008</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1598261.1362000001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" s="5">
+        <v>1438435.0225800006</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="5">
+        <v>479478.34086000023</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" s="5">
+        <v>1118782.7953400039</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="5">
+        <v>1598261.1362000036</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" s="5">
+        <v>319652.22723999934</v>
+      </c>
+      <c r="C32" s="5">
+        <v>1598261.1362000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" s="5">
+        <v>1118782.7953400039</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1598261.1362000001</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting pivot="1" sqref="C3:C15">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting pivot="1" sqref="D3:D25">
+    <cfRule type="iconSet" priority="1">
       <iconSet showValue="0">
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="-0.5"/>
